--- a/medicine/Psychotrope/Islay_whisky/Islay_whisky.xlsx
+++ b/medicine/Psychotrope/Islay_whisky/Islay_whisky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Islay whisky est un Scotch whisky produit sur l'île d'Islay ou Ìle en gaélique. Cette île est la plus méridionale des Hébrides intérieures à l'ouest de l'Écosse. Il y a neuf distilleries actives sur l'île.
@@ -512,9 +524,11 @@
           <t>Styles de whisky</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les distilleries le long de la côte sud-est de l'île, Laphroaig, Lagavulin et Ardbeg ont un fort goût tourbé. Ce goût vient de l'eau utilisée pour faire le whisky ainsi que de l'orge qui est fumé à la tourbe[1]. Il recèle aussi des notes d'iode, de varech et de salé. Caol Ila, sur la côte nord de l'île, en face de Jura, possède aussi un whisky fortement tourbé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les distilleries le long de la côte sud-est de l'île, Laphroaig, Lagavulin et Ardbeg ont un fort goût tourbé. Ce goût vient de l'eau utilisée pour faire le whisky ainsi que de l'orge qui est fumé à la tourbe. Il recèle aussi des notes d'iode, de varech et de salé. Caol Ila, sur la côte nord de l'île, en face de Jura, possède aussi un whisky fortement tourbé.
 Bowmore produit un whisky moyennement tourbé (25 ppm) mais utilise aussi une maturation dans des  fûts utilisés précédemment pour faire du sherry. La nouvelle distillerie, Kilchoman, a commencé la production en 2006. Elle est située, contrairement aux autres, sur la côte atlantique.
 Les autres distilleries de l'île font des whiskies avec des styles variés. Bunnahabhain et Bruichladdich font des whiskies plus légers, qui traditionnellement ne sont pas du tout tourbés. Cependant ces deux distilleries produisent également des whiskies à fort goût de tourbe.
 </t>
@@ -547,9 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Distilleries actives
-Distilleries fermées
-Achenvoir (pre-1816–1818+), à Argyll ;
+          <t>Distilleries fermées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Achenvoir (pre-1816–1818+), à Argyll ;
 Ardenistle (1837–1849) / Kildalton (1849–1852) / Islay (1852–1852), absorbée par Laphroaig en 1853 ;
 Ardmore (1817–1835), rachetée par Lagavulin en 1837 ;
 Daill (1814–1830), il reste des ruines sur la route entre Port Askaig et Bridgend ;
